--- a/biology/Médecine/Walter_Rudolf_Hess/Walter_Rudolf_Hess.xlsx
+++ b/biology/Médecine/Walter_Rudolf_Hess/Walter_Rudolf_Hess.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Rudolf Hess (17 mars 1881 à Frauenfeld, Suisse - 12 août 1973 à Muralto, Suisse) est un physiologiste, ophtalmologue et chirurgien suisse. Il est lauréat de la moitié du prix Nobel de physiologie ou médecine de 1949[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Rudolf Hess (17 mars 1881 à Frauenfeld, Suisse - 12 août 1973 à Muralto, Suisse) est un physiologiste, ophtalmologue et chirurgien suisse. Il est lauréat de la moitié du prix Nobel de physiologie ou médecine de 1949.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de médecine à l'Université de Zurich en 1906, il exerça comme chirurgien et ophtalmologue, puis se tourna vers la recherche à partir de 1912. De 1917 à 1951, il fut professeur à l'Institut physiologique de l'Université de Zurich.
-En 1949, il est lauréat de la moitié du prix Nobel de physiologie ou médecine (l'autre moitié a été remise à Egas Moniz) « pour sa découverte de l'organisation fonctionnelle du diencéphale comme coordonnateur des organes internes[2] ».
+En 1949, il est lauréat de la moitié du prix Nobel de physiologie ou médecine (l'autre moitié a été remise à Egas Moniz) « pour sa découverte de l'organisation fonctionnelle du diencéphale comme coordonnateur des organes internes ».
 </t>
         </is>
       </c>
